--- a/Souq/src/price/Souq/excel_47_saias.xlsx
+++ b/Souq/src/price/Souq/excel_47_saias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,592 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SAIA CINDY</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-cindy-04-26-08-316-053.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SAIA MARCELY</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-marcely-04-26-08-302-024.html</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>898,00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>638,00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SAIA SUCENA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-sucena-04-26-08-314-051.html</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SAIA DIARA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-diara-04-23-07-283-054.html</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>498,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SAIA GENEVRA BAP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-genevra-bap-04-23-07-289-054.html</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>598,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SAIA HARUE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-harue-04-26-08-327-054.html</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SAIA HELENA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-helena-04-26-08-331-054.html</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SAIA MUNIQUE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-munique-04-26-08-323-054.html</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SAIA SKY</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-sky-04-23-07-287-002.html</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SAIA WINNIE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-winnie-04-26-08-348-024.html</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SAIA HERMIONE</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-hermione-04-26-08-319-053.html</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SAIA JUDY</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-judy-04-23-07-290-053.html</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SAIA VIK</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-vik-04-26-08-332-057.html</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SAIA MARION</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-marion-04-26-08-320-007.html</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SAIA BELLA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-bella-04-26-08-299-054.html</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SAIA GAMORA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-gamora-04-26-08-317-030.html</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>998,00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SAIA MARISA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-marisa-04-23-07-286-030.html</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>798,00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SAIAS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/roupas/partes-de-baixo/saias.html?p=1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SAIA MAY</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://www.souqstore.com.br/saia-may-04-23-07-284-002.html</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>698,00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
